--- a/Financial Analysis/NFLX.xlsx
+++ b/Financial Analysis/NFLX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C050544-A418-4321-9C71-382CFA126660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6FC23E-7EB2-4143-9DD5-80178DCD70F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="639" activeTab="1" xr2:uid="{0F574E5A-2072-44A4-9588-9F3B274273C1}"/>
   </bookViews>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45769</v>
+        <v>45782</v>
       </c>
       <c r="G3" s="4">
         <v>45854</v>
@@ -8885,7 +8885,7 @@
         <v>435.9</v>
       </c>
       <c r="BQ38" s="2">
-        <f t="shared" ref="BQ38:CB38" si="231">427.7</f>
+        <f t="shared" ref="BQ38" si="231">427.7</f>
         <v>427.7</v>
       </c>
       <c r="BR38" s="2">
